--- a/data files/Purchase Order/TYNOR ORDER list.xlsx
+++ b/data files/Purchase Order/TYNOR ORDER list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECTS\BS file manager\BS-order-manager\data files\Purchase Order\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{413BAEF6-B00C-4569-A20B-8FAE1CB37AEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B33CB5-9D24-44CD-A37E-7D6680FD1CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1428" yWindow="1428" windowWidth="17304" windowHeight="8880" xr2:uid="{8EDAF1D9-737B-497E-8212-6763A238E06B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{8EDAF1D9-737B-497E-8212-6763A238E06B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="100">
   <si>
     <t>Code</t>
   </si>
@@ -157,167 +157,176 @@
     <t>A-33</t>
   </si>
   <si>
+    <t>A-30</t>
+  </si>
+  <si>
+    <t>Cervical Orthosis</t>
+  </si>
+  <si>
+    <t>B-10</t>
+  </si>
+  <si>
+    <t>Pouch Arm Sling</t>
+  </si>
+  <si>
+    <t>C-01</t>
+  </si>
+  <si>
+    <t>Cast Shoe</t>
+  </si>
+  <si>
+    <t>C-08</t>
+  </si>
+  <si>
+    <t>Knee Immobilizer 19"</t>
+  </si>
+  <si>
+    <t>D-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R.O.M. Knee Brace </t>
+  </si>
+  <si>
+    <t>D-10</t>
+  </si>
+  <si>
+    <t>Wrist Brace With Thumb</t>
+  </si>
+  <si>
+    <t>E-06</t>
+  </si>
+  <si>
+    <t>G-01</t>
+  </si>
+  <si>
+    <t>Weight Cuff</t>
+  </si>
+  <si>
+    <t>Cool Pack</t>
+  </si>
+  <si>
+    <t>H-11</t>
+  </si>
+  <si>
+    <t>Insole Full Silicon</t>
+  </si>
+  <si>
+    <t>K-01</t>
+  </si>
+  <si>
+    <t>Medical Arch Orthosis</t>
+  </si>
+  <si>
+    <t>Uni.</t>
+  </si>
+  <si>
+    <t>S.No.</t>
+  </si>
+  <si>
+    <t>Commod Chair</t>
+  </si>
+  <si>
+    <t>K-10,K-11</t>
+  </si>
+  <si>
+    <t>L-34UKZ</t>
+  </si>
+  <si>
+    <t>H-01 TO 03</t>
+  </si>
+  <si>
+    <t>Skin Traction Set(ADULT)</t>
+  </si>
+  <si>
+    <t>Medical Compression Stockings</t>
+  </si>
+  <si>
+    <t>I-70</t>
+  </si>
+  <si>
+    <t>Auxillary Crutch</t>
+  </si>
+  <si>
+    <t>Cervical Coller Soft with support</t>
+  </si>
+  <si>
+    <t>B-02</t>
+  </si>
+  <si>
+    <t>Scortal Support</t>
+  </si>
+  <si>
+    <t>I-59</t>
+  </si>
+  <si>
+    <t>Travel Pillow</t>
+  </si>
+  <si>
+    <t>I-93</t>
+  </si>
+  <si>
+    <t>B-29</t>
+  </si>
+  <si>
+    <t>Contured Cervical Pillow-MEMORY FOAM</t>
+  </si>
+  <si>
+    <t>Lumbo Back Rest Urbane</t>
+  </si>
+  <si>
+    <t>I-92</t>
+  </si>
+  <si>
+    <t>Knee Support Sportif ( Neoprene)</t>
+  </si>
+  <si>
+    <t>J-09</t>
+  </si>
+  <si>
+    <t>Back Rest Full</t>
+  </si>
+  <si>
+    <t>Knee Wrap Hinged (Neoprene)</t>
+  </si>
+  <si>
+    <t>J-15</t>
+  </si>
+  <si>
+    <t>J-05</t>
+  </si>
+  <si>
+    <t>Knee Wrap (Neoprene)-SPL</t>
+  </si>
+  <si>
+    <t>Knee Wrap (Neoprene)-Universal</t>
+  </si>
+  <si>
+    <t>Tourniqute-Medium/ Large</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Bunion Splint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                             thigh height</t>
+  </si>
+  <si>
     <t>Lacepull L.S. Belt</t>
   </si>
   <si>
-    <t>A-30</t>
-  </si>
-  <si>
-    <t>Cervical Orthosis</t>
-  </si>
-  <si>
-    <t>B-10</t>
-  </si>
-  <si>
-    <t>Pouch Arm Sling</t>
-  </si>
-  <si>
-    <t>C-01</t>
-  </si>
-  <si>
-    <t>Cast Shoe</t>
-  </si>
-  <si>
-    <t>C-08</t>
-  </si>
-  <si>
-    <t>Knee Immobilizer 19"</t>
-  </si>
-  <si>
-    <t>D-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R.O.M. Knee Brace </t>
-  </si>
-  <si>
-    <t>D-10</t>
-  </si>
-  <si>
-    <t>Wrist Brace With Thumb</t>
-  </si>
-  <si>
-    <t>E-06</t>
-  </si>
-  <si>
-    <t>G-01</t>
-  </si>
-  <si>
-    <t>Weight Cuff</t>
-  </si>
-  <si>
-    <t>Cool Pack</t>
-  </si>
-  <si>
-    <t>H-11</t>
-  </si>
-  <si>
-    <t>Insole Full Silicon</t>
-  </si>
-  <si>
-    <t>K-01</t>
-  </si>
-  <si>
-    <t>Medical Arch Orthosis</t>
-  </si>
-  <si>
-    <t>Uni.</t>
-  </si>
-  <si>
-    <t>S.No.</t>
-  </si>
-  <si>
-    <t>Commod Chair</t>
-  </si>
-  <si>
-    <t>K-10,K-11</t>
-  </si>
-  <si>
-    <t>L-34UKZ</t>
-  </si>
-  <si>
-    <t>H-01 TO 03</t>
-  </si>
-  <si>
-    <t>Skin Traction Set(ADULT)</t>
-  </si>
-  <si>
-    <t>Medical Compression Stockings</t>
-  </si>
-  <si>
-    <t>I-70</t>
-  </si>
-  <si>
-    <t>Auxillary Crutch</t>
-  </si>
-  <si>
-    <t>Cervical Coller Soft with support</t>
-  </si>
-  <si>
-    <t>B-02</t>
-  </si>
-  <si>
-    <t>Scortal Support</t>
-  </si>
-  <si>
-    <t>I-59</t>
-  </si>
-  <si>
-    <t>Travel Pillow</t>
-  </si>
-  <si>
-    <t>I-93</t>
-  </si>
-  <si>
-    <t>B-29</t>
-  </si>
-  <si>
-    <t>Contured Cervical Pillow-MEMORY FOAM</t>
-  </si>
-  <si>
-    <t>Lumbo Back Rest Urbane</t>
-  </si>
-  <si>
-    <t>I-92</t>
-  </si>
-  <si>
-    <t>Knee Support Sportif ( Neoprene)</t>
-  </si>
-  <si>
-    <t>J-09</t>
-  </si>
-  <si>
-    <t>Back Rest Full</t>
-  </si>
-  <si>
-    <t>Knee Wrap Hinged (Neoprene)</t>
-  </si>
-  <si>
-    <t>J-15</t>
-  </si>
-  <si>
-    <t>J-05</t>
-  </si>
-  <si>
-    <t>Knee Wrap (Neoprene)-SPL</t>
-  </si>
-  <si>
-    <t>Knee Wrap (Neoprene)-Universal</t>
-  </si>
-  <si>
-    <t>Tourniqute-Medium/ Large</t>
-  </si>
-  <si>
-    <t>Item Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                             *thigh height</t>
+    <t>xxl-xxxl-2</t>
+  </si>
+  <si>
+    <t>2kg-2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -382,6 +391,12 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -480,7 +495,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -563,6 +578,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -869,36 +887,477 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{044B50CF-8FDC-44F2-B7AC-F4F298BFEFC0}">
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="38.33203125" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="6.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="38.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" style="2" customWidth="1"/>
+    <col min="257" max="257" width="6.140625" customWidth="1"/>
+    <col min="258" max="258" width="38.28515625" customWidth="1"/>
+    <col min="259" max="259" width="10.5703125" customWidth="1"/>
+    <col min="260" max="260" width="8.140625" customWidth="1"/>
+    <col min="261" max="261" width="9.7109375" customWidth="1"/>
+    <col min="262" max="263" width="8.7109375" customWidth="1"/>
+    <col min="264" max="264" width="6.7109375" customWidth="1"/>
+    <col min="513" max="513" width="6.140625" customWidth="1"/>
+    <col min="514" max="514" width="38.28515625" customWidth="1"/>
+    <col min="515" max="515" width="10.5703125" customWidth="1"/>
+    <col min="516" max="516" width="8.140625" customWidth="1"/>
+    <col min="517" max="517" width="9.7109375" customWidth="1"/>
+    <col min="518" max="519" width="8.7109375" customWidth="1"/>
+    <col min="520" max="520" width="6.7109375" customWidth="1"/>
+    <col min="769" max="769" width="6.140625" customWidth="1"/>
+    <col min="770" max="770" width="38.28515625" customWidth="1"/>
+    <col min="771" max="771" width="10.5703125" customWidth="1"/>
+    <col min="772" max="772" width="8.140625" customWidth="1"/>
+    <col min="773" max="773" width="9.7109375" customWidth="1"/>
+    <col min="774" max="775" width="8.7109375" customWidth="1"/>
+    <col min="776" max="776" width="6.7109375" customWidth="1"/>
+    <col min="1025" max="1025" width="6.140625" customWidth="1"/>
+    <col min="1026" max="1026" width="38.28515625" customWidth="1"/>
+    <col min="1027" max="1027" width="10.5703125" customWidth="1"/>
+    <col min="1028" max="1028" width="8.140625" customWidth="1"/>
+    <col min="1029" max="1029" width="9.7109375" customWidth="1"/>
+    <col min="1030" max="1031" width="8.7109375" customWidth="1"/>
+    <col min="1032" max="1032" width="6.7109375" customWidth="1"/>
+    <col min="1281" max="1281" width="6.140625" customWidth="1"/>
+    <col min="1282" max="1282" width="38.28515625" customWidth="1"/>
+    <col min="1283" max="1283" width="10.5703125" customWidth="1"/>
+    <col min="1284" max="1284" width="8.140625" customWidth="1"/>
+    <col min="1285" max="1285" width="9.7109375" customWidth="1"/>
+    <col min="1286" max="1287" width="8.7109375" customWidth="1"/>
+    <col min="1288" max="1288" width="6.7109375" customWidth="1"/>
+    <col min="1537" max="1537" width="6.140625" customWidth="1"/>
+    <col min="1538" max="1538" width="38.28515625" customWidth="1"/>
+    <col min="1539" max="1539" width="10.5703125" customWidth="1"/>
+    <col min="1540" max="1540" width="8.140625" customWidth="1"/>
+    <col min="1541" max="1541" width="9.7109375" customWidth="1"/>
+    <col min="1542" max="1543" width="8.7109375" customWidth="1"/>
+    <col min="1544" max="1544" width="6.7109375" customWidth="1"/>
+    <col min="1793" max="1793" width="6.140625" customWidth="1"/>
+    <col min="1794" max="1794" width="38.28515625" customWidth="1"/>
+    <col min="1795" max="1795" width="10.5703125" customWidth="1"/>
+    <col min="1796" max="1796" width="8.140625" customWidth="1"/>
+    <col min="1797" max="1797" width="9.7109375" customWidth="1"/>
+    <col min="1798" max="1799" width="8.7109375" customWidth="1"/>
+    <col min="1800" max="1800" width="6.7109375" customWidth="1"/>
+    <col min="2049" max="2049" width="6.140625" customWidth="1"/>
+    <col min="2050" max="2050" width="38.28515625" customWidth="1"/>
+    <col min="2051" max="2051" width="10.5703125" customWidth="1"/>
+    <col min="2052" max="2052" width="8.140625" customWidth="1"/>
+    <col min="2053" max="2053" width="9.7109375" customWidth="1"/>
+    <col min="2054" max="2055" width="8.7109375" customWidth="1"/>
+    <col min="2056" max="2056" width="6.7109375" customWidth="1"/>
+    <col min="2305" max="2305" width="6.140625" customWidth="1"/>
+    <col min="2306" max="2306" width="38.28515625" customWidth="1"/>
+    <col min="2307" max="2307" width="10.5703125" customWidth="1"/>
+    <col min="2308" max="2308" width="8.140625" customWidth="1"/>
+    <col min="2309" max="2309" width="9.7109375" customWidth="1"/>
+    <col min="2310" max="2311" width="8.7109375" customWidth="1"/>
+    <col min="2312" max="2312" width="6.7109375" customWidth="1"/>
+    <col min="2561" max="2561" width="6.140625" customWidth="1"/>
+    <col min="2562" max="2562" width="38.28515625" customWidth="1"/>
+    <col min="2563" max="2563" width="10.5703125" customWidth="1"/>
+    <col min="2564" max="2564" width="8.140625" customWidth="1"/>
+    <col min="2565" max="2565" width="9.7109375" customWidth="1"/>
+    <col min="2566" max="2567" width="8.7109375" customWidth="1"/>
+    <col min="2568" max="2568" width="6.7109375" customWidth="1"/>
+    <col min="2817" max="2817" width="6.140625" customWidth="1"/>
+    <col min="2818" max="2818" width="38.28515625" customWidth="1"/>
+    <col min="2819" max="2819" width="10.5703125" customWidth="1"/>
+    <col min="2820" max="2820" width="8.140625" customWidth="1"/>
+    <col min="2821" max="2821" width="9.7109375" customWidth="1"/>
+    <col min="2822" max="2823" width="8.7109375" customWidth="1"/>
+    <col min="2824" max="2824" width="6.7109375" customWidth="1"/>
+    <col min="3073" max="3073" width="6.140625" customWidth="1"/>
+    <col min="3074" max="3074" width="38.28515625" customWidth="1"/>
+    <col min="3075" max="3075" width="10.5703125" customWidth="1"/>
+    <col min="3076" max="3076" width="8.140625" customWidth="1"/>
+    <col min="3077" max="3077" width="9.7109375" customWidth="1"/>
+    <col min="3078" max="3079" width="8.7109375" customWidth="1"/>
+    <col min="3080" max="3080" width="6.7109375" customWidth="1"/>
+    <col min="3329" max="3329" width="6.140625" customWidth="1"/>
+    <col min="3330" max="3330" width="38.28515625" customWidth="1"/>
+    <col min="3331" max="3331" width="10.5703125" customWidth="1"/>
+    <col min="3332" max="3332" width="8.140625" customWidth="1"/>
+    <col min="3333" max="3333" width="9.7109375" customWidth="1"/>
+    <col min="3334" max="3335" width="8.7109375" customWidth="1"/>
+    <col min="3336" max="3336" width="6.7109375" customWidth="1"/>
+    <col min="3585" max="3585" width="6.140625" customWidth="1"/>
+    <col min="3586" max="3586" width="38.28515625" customWidth="1"/>
+    <col min="3587" max="3587" width="10.5703125" customWidth="1"/>
+    <col min="3588" max="3588" width="8.140625" customWidth="1"/>
+    <col min="3589" max="3589" width="9.7109375" customWidth="1"/>
+    <col min="3590" max="3591" width="8.7109375" customWidth="1"/>
+    <col min="3592" max="3592" width="6.7109375" customWidth="1"/>
+    <col min="3841" max="3841" width="6.140625" customWidth="1"/>
+    <col min="3842" max="3842" width="38.28515625" customWidth="1"/>
+    <col min="3843" max="3843" width="10.5703125" customWidth="1"/>
+    <col min="3844" max="3844" width="8.140625" customWidth="1"/>
+    <col min="3845" max="3845" width="9.7109375" customWidth="1"/>
+    <col min="3846" max="3847" width="8.7109375" customWidth="1"/>
+    <col min="3848" max="3848" width="6.7109375" customWidth="1"/>
+    <col min="4097" max="4097" width="6.140625" customWidth="1"/>
+    <col min="4098" max="4098" width="38.28515625" customWidth="1"/>
+    <col min="4099" max="4099" width="10.5703125" customWidth="1"/>
+    <col min="4100" max="4100" width="8.140625" customWidth="1"/>
+    <col min="4101" max="4101" width="9.7109375" customWidth="1"/>
+    <col min="4102" max="4103" width="8.7109375" customWidth="1"/>
+    <col min="4104" max="4104" width="6.7109375" customWidth="1"/>
+    <col min="4353" max="4353" width="6.140625" customWidth="1"/>
+    <col min="4354" max="4354" width="38.28515625" customWidth="1"/>
+    <col min="4355" max="4355" width="10.5703125" customWidth="1"/>
+    <col min="4356" max="4356" width="8.140625" customWidth="1"/>
+    <col min="4357" max="4357" width="9.7109375" customWidth="1"/>
+    <col min="4358" max="4359" width="8.7109375" customWidth="1"/>
+    <col min="4360" max="4360" width="6.7109375" customWidth="1"/>
+    <col min="4609" max="4609" width="6.140625" customWidth="1"/>
+    <col min="4610" max="4610" width="38.28515625" customWidth="1"/>
+    <col min="4611" max="4611" width="10.5703125" customWidth="1"/>
+    <col min="4612" max="4612" width="8.140625" customWidth="1"/>
+    <col min="4613" max="4613" width="9.7109375" customWidth="1"/>
+    <col min="4614" max="4615" width="8.7109375" customWidth="1"/>
+    <col min="4616" max="4616" width="6.7109375" customWidth="1"/>
+    <col min="4865" max="4865" width="6.140625" customWidth="1"/>
+    <col min="4866" max="4866" width="38.28515625" customWidth="1"/>
+    <col min="4867" max="4867" width="10.5703125" customWidth="1"/>
+    <col min="4868" max="4868" width="8.140625" customWidth="1"/>
+    <col min="4869" max="4869" width="9.7109375" customWidth="1"/>
+    <col min="4870" max="4871" width="8.7109375" customWidth="1"/>
+    <col min="4872" max="4872" width="6.7109375" customWidth="1"/>
+    <col min="5121" max="5121" width="6.140625" customWidth="1"/>
+    <col min="5122" max="5122" width="38.28515625" customWidth="1"/>
+    <col min="5123" max="5123" width="10.5703125" customWidth="1"/>
+    <col min="5124" max="5124" width="8.140625" customWidth="1"/>
+    <col min="5125" max="5125" width="9.7109375" customWidth="1"/>
+    <col min="5126" max="5127" width="8.7109375" customWidth="1"/>
+    <col min="5128" max="5128" width="6.7109375" customWidth="1"/>
+    <col min="5377" max="5377" width="6.140625" customWidth="1"/>
+    <col min="5378" max="5378" width="38.28515625" customWidth="1"/>
+    <col min="5379" max="5379" width="10.5703125" customWidth="1"/>
+    <col min="5380" max="5380" width="8.140625" customWidth="1"/>
+    <col min="5381" max="5381" width="9.7109375" customWidth="1"/>
+    <col min="5382" max="5383" width="8.7109375" customWidth="1"/>
+    <col min="5384" max="5384" width="6.7109375" customWidth="1"/>
+    <col min="5633" max="5633" width="6.140625" customWidth="1"/>
+    <col min="5634" max="5634" width="38.28515625" customWidth="1"/>
+    <col min="5635" max="5635" width="10.5703125" customWidth="1"/>
+    <col min="5636" max="5636" width="8.140625" customWidth="1"/>
+    <col min="5637" max="5637" width="9.7109375" customWidth="1"/>
+    <col min="5638" max="5639" width="8.7109375" customWidth="1"/>
+    <col min="5640" max="5640" width="6.7109375" customWidth="1"/>
+    <col min="5889" max="5889" width="6.140625" customWidth="1"/>
+    <col min="5890" max="5890" width="38.28515625" customWidth="1"/>
+    <col min="5891" max="5891" width="10.5703125" customWidth="1"/>
+    <col min="5892" max="5892" width="8.140625" customWidth="1"/>
+    <col min="5893" max="5893" width="9.7109375" customWidth="1"/>
+    <col min="5894" max="5895" width="8.7109375" customWidth="1"/>
+    <col min="5896" max="5896" width="6.7109375" customWidth="1"/>
+    <col min="6145" max="6145" width="6.140625" customWidth="1"/>
+    <col min="6146" max="6146" width="38.28515625" customWidth="1"/>
+    <col min="6147" max="6147" width="10.5703125" customWidth="1"/>
+    <col min="6148" max="6148" width="8.140625" customWidth="1"/>
+    <col min="6149" max="6149" width="9.7109375" customWidth="1"/>
+    <col min="6150" max="6151" width="8.7109375" customWidth="1"/>
+    <col min="6152" max="6152" width="6.7109375" customWidth="1"/>
+    <col min="6401" max="6401" width="6.140625" customWidth="1"/>
+    <col min="6402" max="6402" width="38.28515625" customWidth="1"/>
+    <col min="6403" max="6403" width="10.5703125" customWidth="1"/>
+    <col min="6404" max="6404" width="8.140625" customWidth="1"/>
+    <col min="6405" max="6405" width="9.7109375" customWidth="1"/>
+    <col min="6406" max="6407" width="8.7109375" customWidth="1"/>
+    <col min="6408" max="6408" width="6.7109375" customWidth="1"/>
+    <col min="6657" max="6657" width="6.140625" customWidth="1"/>
+    <col min="6658" max="6658" width="38.28515625" customWidth="1"/>
+    <col min="6659" max="6659" width="10.5703125" customWidth="1"/>
+    <col min="6660" max="6660" width="8.140625" customWidth="1"/>
+    <col min="6661" max="6661" width="9.7109375" customWidth="1"/>
+    <col min="6662" max="6663" width="8.7109375" customWidth="1"/>
+    <col min="6664" max="6664" width="6.7109375" customWidth="1"/>
+    <col min="6913" max="6913" width="6.140625" customWidth="1"/>
+    <col min="6914" max="6914" width="38.28515625" customWidth="1"/>
+    <col min="6915" max="6915" width="10.5703125" customWidth="1"/>
+    <col min="6916" max="6916" width="8.140625" customWidth="1"/>
+    <col min="6917" max="6917" width="9.7109375" customWidth="1"/>
+    <col min="6918" max="6919" width="8.7109375" customWidth="1"/>
+    <col min="6920" max="6920" width="6.7109375" customWidth="1"/>
+    <col min="7169" max="7169" width="6.140625" customWidth="1"/>
+    <col min="7170" max="7170" width="38.28515625" customWidth="1"/>
+    <col min="7171" max="7171" width="10.5703125" customWidth="1"/>
+    <col min="7172" max="7172" width="8.140625" customWidth="1"/>
+    <col min="7173" max="7173" width="9.7109375" customWidth="1"/>
+    <col min="7174" max="7175" width="8.7109375" customWidth="1"/>
+    <col min="7176" max="7176" width="6.7109375" customWidth="1"/>
+    <col min="7425" max="7425" width="6.140625" customWidth="1"/>
+    <col min="7426" max="7426" width="38.28515625" customWidth="1"/>
+    <col min="7427" max="7427" width="10.5703125" customWidth="1"/>
+    <col min="7428" max="7428" width="8.140625" customWidth="1"/>
+    <col min="7429" max="7429" width="9.7109375" customWidth="1"/>
+    <col min="7430" max="7431" width="8.7109375" customWidth="1"/>
+    <col min="7432" max="7432" width="6.7109375" customWidth="1"/>
+    <col min="7681" max="7681" width="6.140625" customWidth="1"/>
+    <col min="7682" max="7682" width="38.28515625" customWidth="1"/>
+    <col min="7683" max="7683" width="10.5703125" customWidth="1"/>
+    <col min="7684" max="7684" width="8.140625" customWidth="1"/>
+    <col min="7685" max="7685" width="9.7109375" customWidth="1"/>
+    <col min="7686" max="7687" width="8.7109375" customWidth="1"/>
+    <col min="7688" max="7688" width="6.7109375" customWidth="1"/>
+    <col min="7937" max="7937" width="6.140625" customWidth="1"/>
+    <col min="7938" max="7938" width="38.28515625" customWidth="1"/>
+    <col min="7939" max="7939" width="10.5703125" customWidth="1"/>
+    <col min="7940" max="7940" width="8.140625" customWidth="1"/>
+    <col min="7941" max="7941" width="9.7109375" customWidth="1"/>
+    <col min="7942" max="7943" width="8.7109375" customWidth="1"/>
+    <col min="7944" max="7944" width="6.7109375" customWidth="1"/>
+    <col min="8193" max="8193" width="6.140625" customWidth="1"/>
+    <col min="8194" max="8194" width="38.28515625" customWidth="1"/>
+    <col min="8195" max="8195" width="10.5703125" customWidth="1"/>
+    <col min="8196" max="8196" width="8.140625" customWidth="1"/>
+    <col min="8197" max="8197" width="9.7109375" customWidth="1"/>
+    <col min="8198" max="8199" width="8.7109375" customWidth="1"/>
+    <col min="8200" max="8200" width="6.7109375" customWidth="1"/>
+    <col min="8449" max="8449" width="6.140625" customWidth="1"/>
+    <col min="8450" max="8450" width="38.28515625" customWidth="1"/>
+    <col min="8451" max="8451" width="10.5703125" customWidth="1"/>
+    <col min="8452" max="8452" width="8.140625" customWidth="1"/>
+    <col min="8453" max="8453" width="9.7109375" customWidth="1"/>
+    <col min="8454" max="8455" width="8.7109375" customWidth="1"/>
+    <col min="8456" max="8456" width="6.7109375" customWidth="1"/>
+    <col min="8705" max="8705" width="6.140625" customWidth="1"/>
+    <col min="8706" max="8706" width="38.28515625" customWidth="1"/>
+    <col min="8707" max="8707" width="10.5703125" customWidth="1"/>
+    <col min="8708" max="8708" width="8.140625" customWidth="1"/>
+    <col min="8709" max="8709" width="9.7109375" customWidth="1"/>
+    <col min="8710" max="8711" width="8.7109375" customWidth="1"/>
+    <col min="8712" max="8712" width="6.7109375" customWidth="1"/>
+    <col min="8961" max="8961" width="6.140625" customWidth="1"/>
+    <col min="8962" max="8962" width="38.28515625" customWidth="1"/>
+    <col min="8963" max="8963" width="10.5703125" customWidth="1"/>
+    <col min="8964" max="8964" width="8.140625" customWidth="1"/>
+    <col min="8965" max="8965" width="9.7109375" customWidth="1"/>
+    <col min="8966" max="8967" width="8.7109375" customWidth="1"/>
+    <col min="8968" max="8968" width="6.7109375" customWidth="1"/>
+    <col min="9217" max="9217" width="6.140625" customWidth="1"/>
+    <col min="9218" max="9218" width="38.28515625" customWidth="1"/>
+    <col min="9219" max="9219" width="10.5703125" customWidth="1"/>
+    <col min="9220" max="9220" width="8.140625" customWidth="1"/>
+    <col min="9221" max="9221" width="9.7109375" customWidth="1"/>
+    <col min="9222" max="9223" width="8.7109375" customWidth="1"/>
+    <col min="9224" max="9224" width="6.7109375" customWidth="1"/>
+    <col min="9473" max="9473" width="6.140625" customWidth="1"/>
+    <col min="9474" max="9474" width="38.28515625" customWidth="1"/>
+    <col min="9475" max="9475" width="10.5703125" customWidth="1"/>
+    <col min="9476" max="9476" width="8.140625" customWidth="1"/>
+    <col min="9477" max="9477" width="9.7109375" customWidth="1"/>
+    <col min="9478" max="9479" width="8.7109375" customWidth="1"/>
+    <col min="9480" max="9480" width="6.7109375" customWidth="1"/>
+    <col min="9729" max="9729" width="6.140625" customWidth="1"/>
+    <col min="9730" max="9730" width="38.28515625" customWidth="1"/>
+    <col min="9731" max="9731" width="10.5703125" customWidth="1"/>
+    <col min="9732" max="9732" width="8.140625" customWidth="1"/>
+    <col min="9733" max="9733" width="9.7109375" customWidth="1"/>
+    <col min="9734" max="9735" width="8.7109375" customWidth="1"/>
+    <col min="9736" max="9736" width="6.7109375" customWidth="1"/>
+    <col min="9985" max="9985" width="6.140625" customWidth="1"/>
+    <col min="9986" max="9986" width="38.28515625" customWidth="1"/>
+    <col min="9987" max="9987" width="10.5703125" customWidth="1"/>
+    <col min="9988" max="9988" width="8.140625" customWidth="1"/>
+    <col min="9989" max="9989" width="9.7109375" customWidth="1"/>
+    <col min="9990" max="9991" width="8.7109375" customWidth="1"/>
+    <col min="9992" max="9992" width="6.7109375" customWidth="1"/>
+    <col min="10241" max="10241" width="6.140625" customWidth="1"/>
+    <col min="10242" max="10242" width="38.28515625" customWidth="1"/>
+    <col min="10243" max="10243" width="10.5703125" customWidth="1"/>
+    <col min="10244" max="10244" width="8.140625" customWidth="1"/>
+    <col min="10245" max="10245" width="9.7109375" customWidth="1"/>
+    <col min="10246" max="10247" width="8.7109375" customWidth="1"/>
+    <col min="10248" max="10248" width="6.7109375" customWidth="1"/>
+    <col min="10497" max="10497" width="6.140625" customWidth="1"/>
+    <col min="10498" max="10498" width="38.28515625" customWidth="1"/>
+    <col min="10499" max="10499" width="10.5703125" customWidth="1"/>
+    <col min="10500" max="10500" width="8.140625" customWidth="1"/>
+    <col min="10501" max="10501" width="9.7109375" customWidth="1"/>
+    <col min="10502" max="10503" width="8.7109375" customWidth="1"/>
+    <col min="10504" max="10504" width="6.7109375" customWidth="1"/>
+    <col min="10753" max="10753" width="6.140625" customWidth="1"/>
+    <col min="10754" max="10754" width="38.28515625" customWidth="1"/>
+    <col min="10755" max="10755" width="10.5703125" customWidth="1"/>
+    <col min="10756" max="10756" width="8.140625" customWidth="1"/>
+    <col min="10757" max="10757" width="9.7109375" customWidth="1"/>
+    <col min="10758" max="10759" width="8.7109375" customWidth="1"/>
+    <col min="10760" max="10760" width="6.7109375" customWidth="1"/>
+    <col min="11009" max="11009" width="6.140625" customWidth="1"/>
+    <col min="11010" max="11010" width="38.28515625" customWidth="1"/>
+    <col min="11011" max="11011" width="10.5703125" customWidth="1"/>
+    <col min="11012" max="11012" width="8.140625" customWidth="1"/>
+    <col min="11013" max="11013" width="9.7109375" customWidth="1"/>
+    <col min="11014" max="11015" width="8.7109375" customWidth="1"/>
+    <col min="11016" max="11016" width="6.7109375" customWidth="1"/>
+    <col min="11265" max="11265" width="6.140625" customWidth="1"/>
+    <col min="11266" max="11266" width="38.28515625" customWidth="1"/>
+    <col min="11267" max="11267" width="10.5703125" customWidth="1"/>
+    <col min="11268" max="11268" width="8.140625" customWidth="1"/>
+    <col min="11269" max="11269" width="9.7109375" customWidth="1"/>
+    <col min="11270" max="11271" width="8.7109375" customWidth="1"/>
+    <col min="11272" max="11272" width="6.7109375" customWidth="1"/>
+    <col min="11521" max="11521" width="6.140625" customWidth="1"/>
+    <col min="11522" max="11522" width="38.28515625" customWidth="1"/>
+    <col min="11523" max="11523" width="10.5703125" customWidth="1"/>
+    <col min="11524" max="11524" width="8.140625" customWidth="1"/>
+    <col min="11525" max="11525" width="9.7109375" customWidth="1"/>
+    <col min="11526" max="11527" width="8.7109375" customWidth="1"/>
+    <col min="11528" max="11528" width="6.7109375" customWidth="1"/>
+    <col min="11777" max="11777" width="6.140625" customWidth="1"/>
+    <col min="11778" max="11778" width="38.28515625" customWidth="1"/>
+    <col min="11779" max="11779" width="10.5703125" customWidth="1"/>
+    <col min="11780" max="11780" width="8.140625" customWidth="1"/>
+    <col min="11781" max="11781" width="9.7109375" customWidth="1"/>
+    <col min="11782" max="11783" width="8.7109375" customWidth="1"/>
+    <col min="11784" max="11784" width="6.7109375" customWidth="1"/>
+    <col min="12033" max="12033" width="6.140625" customWidth="1"/>
+    <col min="12034" max="12034" width="38.28515625" customWidth="1"/>
+    <col min="12035" max="12035" width="10.5703125" customWidth="1"/>
+    <col min="12036" max="12036" width="8.140625" customWidth="1"/>
+    <col min="12037" max="12037" width="9.7109375" customWidth="1"/>
+    <col min="12038" max="12039" width="8.7109375" customWidth="1"/>
+    <col min="12040" max="12040" width="6.7109375" customWidth="1"/>
+    <col min="12289" max="12289" width="6.140625" customWidth="1"/>
+    <col min="12290" max="12290" width="38.28515625" customWidth="1"/>
+    <col min="12291" max="12291" width="10.5703125" customWidth="1"/>
+    <col min="12292" max="12292" width="8.140625" customWidth="1"/>
+    <col min="12293" max="12293" width="9.7109375" customWidth="1"/>
+    <col min="12294" max="12295" width="8.7109375" customWidth="1"/>
+    <col min="12296" max="12296" width="6.7109375" customWidth="1"/>
+    <col min="12545" max="12545" width="6.140625" customWidth="1"/>
+    <col min="12546" max="12546" width="38.28515625" customWidth="1"/>
+    <col min="12547" max="12547" width="10.5703125" customWidth="1"/>
+    <col min="12548" max="12548" width="8.140625" customWidth="1"/>
+    <col min="12549" max="12549" width="9.7109375" customWidth="1"/>
+    <col min="12550" max="12551" width="8.7109375" customWidth="1"/>
+    <col min="12552" max="12552" width="6.7109375" customWidth="1"/>
+    <col min="12801" max="12801" width="6.140625" customWidth="1"/>
+    <col min="12802" max="12802" width="38.28515625" customWidth="1"/>
+    <col min="12803" max="12803" width="10.5703125" customWidth="1"/>
+    <col min="12804" max="12804" width="8.140625" customWidth="1"/>
+    <col min="12805" max="12805" width="9.7109375" customWidth="1"/>
+    <col min="12806" max="12807" width="8.7109375" customWidth="1"/>
+    <col min="12808" max="12808" width="6.7109375" customWidth="1"/>
+    <col min="13057" max="13057" width="6.140625" customWidth="1"/>
+    <col min="13058" max="13058" width="38.28515625" customWidth="1"/>
+    <col min="13059" max="13059" width="10.5703125" customWidth="1"/>
+    <col min="13060" max="13060" width="8.140625" customWidth="1"/>
+    <col min="13061" max="13061" width="9.7109375" customWidth="1"/>
+    <col min="13062" max="13063" width="8.7109375" customWidth="1"/>
+    <col min="13064" max="13064" width="6.7109375" customWidth="1"/>
+    <col min="13313" max="13313" width="6.140625" customWidth="1"/>
+    <col min="13314" max="13314" width="38.28515625" customWidth="1"/>
+    <col min="13315" max="13315" width="10.5703125" customWidth="1"/>
+    <col min="13316" max="13316" width="8.140625" customWidth="1"/>
+    <col min="13317" max="13317" width="9.7109375" customWidth="1"/>
+    <col min="13318" max="13319" width="8.7109375" customWidth="1"/>
+    <col min="13320" max="13320" width="6.7109375" customWidth="1"/>
+    <col min="13569" max="13569" width="6.140625" customWidth="1"/>
+    <col min="13570" max="13570" width="38.28515625" customWidth="1"/>
+    <col min="13571" max="13571" width="10.5703125" customWidth="1"/>
+    <col min="13572" max="13572" width="8.140625" customWidth="1"/>
+    <col min="13573" max="13573" width="9.7109375" customWidth="1"/>
+    <col min="13574" max="13575" width="8.7109375" customWidth="1"/>
+    <col min="13576" max="13576" width="6.7109375" customWidth="1"/>
+    <col min="13825" max="13825" width="6.140625" customWidth="1"/>
+    <col min="13826" max="13826" width="38.28515625" customWidth="1"/>
+    <col min="13827" max="13827" width="10.5703125" customWidth="1"/>
+    <col min="13828" max="13828" width="8.140625" customWidth="1"/>
+    <col min="13829" max="13829" width="9.7109375" customWidth="1"/>
+    <col min="13830" max="13831" width="8.7109375" customWidth="1"/>
+    <col min="13832" max="13832" width="6.7109375" customWidth="1"/>
+    <col min="14081" max="14081" width="6.140625" customWidth="1"/>
+    <col min="14082" max="14082" width="38.28515625" customWidth="1"/>
+    <col min="14083" max="14083" width="10.5703125" customWidth="1"/>
+    <col min="14084" max="14084" width="8.140625" customWidth="1"/>
+    <col min="14085" max="14085" width="9.7109375" customWidth="1"/>
+    <col min="14086" max="14087" width="8.7109375" customWidth="1"/>
+    <col min="14088" max="14088" width="6.7109375" customWidth="1"/>
+    <col min="14337" max="14337" width="6.140625" customWidth="1"/>
+    <col min="14338" max="14338" width="38.28515625" customWidth="1"/>
+    <col min="14339" max="14339" width="10.5703125" customWidth="1"/>
+    <col min="14340" max="14340" width="8.140625" customWidth="1"/>
+    <col min="14341" max="14341" width="9.7109375" customWidth="1"/>
+    <col min="14342" max="14343" width="8.7109375" customWidth="1"/>
+    <col min="14344" max="14344" width="6.7109375" customWidth="1"/>
+    <col min="14593" max="14593" width="6.140625" customWidth="1"/>
+    <col min="14594" max="14594" width="38.28515625" customWidth="1"/>
+    <col min="14595" max="14595" width="10.5703125" customWidth="1"/>
+    <col min="14596" max="14596" width="8.140625" customWidth="1"/>
+    <col min="14597" max="14597" width="9.7109375" customWidth="1"/>
+    <col min="14598" max="14599" width="8.7109375" customWidth="1"/>
+    <col min="14600" max="14600" width="6.7109375" customWidth="1"/>
+    <col min="14849" max="14849" width="6.140625" customWidth="1"/>
+    <col min="14850" max="14850" width="38.28515625" customWidth="1"/>
+    <col min="14851" max="14851" width="10.5703125" customWidth="1"/>
+    <col min="14852" max="14852" width="8.140625" customWidth="1"/>
+    <col min="14853" max="14853" width="9.7109375" customWidth="1"/>
+    <col min="14854" max="14855" width="8.7109375" customWidth="1"/>
+    <col min="14856" max="14856" width="6.7109375" customWidth="1"/>
+    <col min="15105" max="15105" width="6.140625" customWidth="1"/>
+    <col min="15106" max="15106" width="38.28515625" customWidth="1"/>
+    <col min="15107" max="15107" width="10.5703125" customWidth="1"/>
+    <col min="15108" max="15108" width="8.140625" customWidth="1"/>
+    <col min="15109" max="15109" width="9.7109375" customWidth="1"/>
+    <col min="15110" max="15111" width="8.7109375" customWidth="1"/>
+    <col min="15112" max="15112" width="6.7109375" customWidth="1"/>
+    <col min="15361" max="15361" width="6.140625" customWidth="1"/>
+    <col min="15362" max="15362" width="38.28515625" customWidth="1"/>
+    <col min="15363" max="15363" width="10.5703125" customWidth="1"/>
+    <col min="15364" max="15364" width="8.140625" customWidth="1"/>
+    <col min="15365" max="15365" width="9.7109375" customWidth="1"/>
+    <col min="15366" max="15367" width="8.7109375" customWidth="1"/>
+    <col min="15368" max="15368" width="6.7109375" customWidth="1"/>
+    <col min="15617" max="15617" width="6.140625" customWidth="1"/>
+    <col min="15618" max="15618" width="38.28515625" customWidth="1"/>
+    <col min="15619" max="15619" width="10.5703125" customWidth="1"/>
+    <col min="15620" max="15620" width="8.140625" customWidth="1"/>
+    <col min="15621" max="15621" width="9.7109375" customWidth="1"/>
+    <col min="15622" max="15623" width="8.7109375" customWidth="1"/>
+    <col min="15624" max="15624" width="6.7109375" customWidth="1"/>
+    <col min="15873" max="15873" width="6.140625" customWidth="1"/>
+    <col min="15874" max="15874" width="38.28515625" customWidth="1"/>
+    <col min="15875" max="15875" width="10.5703125" customWidth="1"/>
+    <col min="15876" max="15876" width="8.140625" customWidth="1"/>
+    <col min="15877" max="15877" width="9.7109375" customWidth="1"/>
+    <col min="15878" max="15879" width="8.7109375" customWidth="1"/>
+    <col min="15880" max="15880" width="6.7109375" customWidth="1"/>
+    <col min="16129" max="16129" width="6.140625" customWidth="1"/>
+    <col min="16130" max="16130" width="38.28515625" customWidth="1"/>
+    <col min="16131" max="16131" width="10.5703125" customWidth="1"/>
+    <col min="16132" max="16132" width="8.140625" customWidth="1"/>
+    <col min="16133" max="16133" width="9.7109375" customWidth="1"/>
+    <col min="16134" max="16135" width="8.7109375" customWidth="1"/>
+    <col min="16136" max="16136" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C1" s="25" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E1" s="27" t="s">
         <v>3</v>
@@ -913,10 +1372,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="17"/>
       <c r="B2" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="19"/>
@@ -925,7 +1384,7 @@
       <c r="G2" s="22"/>
       <c r="H2" s="19"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6" t="s">
         <v>7</v>
@@ -939,7 +1398,7 @@
       <c r="G3" s="8"/>
       <c r="H3" s="13"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="6" t="s">
         <v>19</v>
@@ -948,12 +1407,18 @@
         <v>20</v>
       </c>
       <c r="D4" s="13"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="9"/>
+      <c r="E4" s="10">
+        <v>25</v>
+      </c>
+      <c r="F4" s="9">
+        <v>15</v>
+      </c>
       <c r="G4" s="8"/>
-      <c r="H4" s="13"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H4" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6" t="s">
         <v>9</v>
@@ -962,154 +1427,182 @@
         <v>10</v>
       </c>
       <c r="D5" s="13"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="9"/>
+      <c r="E5" s="10">
+        <v>10</v>
+      </c>
+      <c r="F5" s="9">
+        <v>10</v>
+      </c>
       <c r="G5" s="8"/>
       <c r="H5" s="13"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="13"/>
+      <c r="D6" s="13">
+        <v>6</v>
+      </c>
       <c r="E6" s="10"/>
       <c r="F6" s="9"/>
       <c r="G6" s="8"/>
       <c r="H6" s="13"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="13"/>
+        <v>95</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="13">
+        <v>2</v>
+      </c>
       <c r="E7" s="10"/>
       <c r="F7" s="9"/>
       <c r="G7" s="8"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="8"/>
+      <c r="F8" s="9">
+        <v>2</v>
+      </c>
+      <c r="G8" s="8">
+        <v>2</v>
+      </c>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="6" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="10"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="8"/>
+      <c r="F9" s="9">
+        <v>5</v>
+      </c>
+      <c r="G9" s="8">
+        <v>2</v>
+      </c>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="6" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="D10" s="13"/>
-      <c r="E10" s="10"/>
+      <c r="E10" s="10">
+        <v>10</v>
+      </c>
       <c r="F10" s="9"/>
       <c r="G10" s="8"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="6" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D11" s="13"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="9"/>
+      <c r="E11" s="10">
+        <v>10</v>
+      </c>
+      <c r="F11" s="9">
+        <v>10</v>
+      </c>
       <c r="G11" s="8"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="13"/>
+        <v>12</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="13">
+        <v>4</v>
+      </c>
       <c r="E12" s="10"/>
       <c r="F12" s="9"/>
       <c r="G12" s="8"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>18</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="C13" s="6"/>
       <c r="D13" s="13"/>
       <c r="E13" s="10"/>
       <c r="F13" s="9"/>
       <c r="G13" s="8"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
-      <c r="B14" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C14" s="7"/>
+      <c r="B14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="D14" s="13"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="8"/>
+      <c r="E14" s="10">
+        <v>8</v>
+      </c>
+      <c r="F14" s="9">
+        <v>10</v>
+      </c>
+      <c r="G14" s="8">
+        <v>4</v>
+      </c>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>74</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="C15" s="7"/>
       <c r="D15" s="13"/>
       <c r="E15" s="10"/>
       <c r="F15" s="9"/>
       <c r="G15" s="8"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
-      <c r="B16" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>82</v>
+      <c r="B16" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="10"/>
@@ -1117,13 +1610,13 @@
       <c r="G16" s="8"/>
       <c r="H16" s="13"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="6" t="s">
-        <v>5</v>
+        <v>82</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="10"/>
@@ -1131,27 +1624,29 @@
       <c r="G17" s="8"/>
       <c r="H17" s="13"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="6" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="D18" s="13"/>
-      <c r="E18" s="10"/>
+      <c r="E18" s="10">
+        <v>15</v>
+      </c>
       <c r="F18" s="9"/>
       <c r="G18" s="8"/>
       <c r="H18" s="13"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="6" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="10"/>
@@ -1159,13 +1654,13 @@
       <c r="G19" s="8"/>
       <c r="H19" s="13"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="6" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="10"/>
@@ -1173,13 +1668,13 @@
       <c r="G20" s="8"/>
       <c r="H20" s="13"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="10"/>
@@ -1187,27 +1682,29 @@
       <c r="G21" s="8"/>
       <c r="H21" s="13"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" s="13"/>
+        <v>42</v>
+      </c>
+      <c r="D22" s="13">
+        <v>32</v>
+      </c>
       <c r="E22" s="10"/>
       <c r="F22" s="9"/>
       <c r="G22" s="8"/>
       <c r="H22" s="13"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="6" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D23" s="13"/>
       <c r="E23" s="10"/>
@@ -1215,83 +1712,99 @@
       <c r="G23" s="8"/>
       <c r="H23" s="13"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="6" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="D24" s="13"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="8"/>
+      <c r="E24" s="10">
+        <v>2</v>
+      </c>
+      <c r="F24" s="9">
+        <v>5</v>
+      </c>
+      <c r="G24" s="8">
+        <v>2</v>
+      </c>
       <c r="H24" s="13"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="6" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="D25" s="13"/>
       <c r="E25" s="10"/>
-      <c r="F25" s="9"/>
+      <c r="F25" s="9">
+        <v>3</v>
+      </c>
       <c r="G25" s="8"/>
       <c r="H25" s="13"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="6" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="D26" s="13"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="9"/>
+      <c r="E26" s="10">
+        <v>10</v>
+      </c>
+      <c r="F26" s="9">
+        <v>40</v>
+      </c>
       <c r="G26" s="8"/>
-      <c r="H26" s="13"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H26" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="6" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D27" s="13"/>
       <c r="E27" s="10"/>
-      <c r="F27" s="31"/>
+      <c r="F27" s="9"/>
       <c r="G27" s="8"/>
       <c r="H27" s="13"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="6" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D28" s="13"/>
+        <v>45</v>
+      </c>
+      <c r="D28" s="32" t="s">
+        <v>98</v>
+      </c>
       <c r="E28" s="10"/>
-      <c r="F28" s="9"/>
+      <c r="F28" s="31"/>
       <c r="G28" s="8"/>
       <c r="H28" s="13"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="6" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="D29" s="13"/>
       <c r="E29" s="10"/>
@@ -1299,41 +1812,51 @@
       <c r="G29" s="8"/>
       <c r="H29" s="13"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="6" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D30" s="13"/>
       <c r="E30" s="10"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="8"/>
+      <c r="F30" s="9">
+        <v>3</v>
+      </c>
+      <c r="G30" s="8">
+        <v>2</v>
+      </c>
       <c r="H30" s="13"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="6" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D31" s="13"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="8"/>
+      <c r="E31" s="10">
+        <v>20</v>
+      </c>
+      <c r="F31" s="9">
+        <v>20</v>
+      </c>
+      <c r="G31" s="8">
+        <v>10</v>
+      </c>
       <c r="H31" s="13"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="6" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="D32" s="13"/>
       <c r="E32" s="10"/>
@@ -1341,13 +1864,13 @@
       <c r="G32" s="8"/>
       <c r="H32" s="13"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="6" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="D33" s="13"/>
       <c r="E33" s="10"/>
@@ -1355,13 +1878,13 @@
       <c r="G33" s="8"/>
       <c r="H33" s="13"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="6" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="D34" s="13"/>
       <c r="E34" s="10"/>
@@ -1369,13 +1892,13 @@
       <c r="G34" s="8"/>
       <c r="H34" s="13"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="6" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="D35" s="13"/>
       <c r="E35" s="10"/>
@@ -1383,41 +1906,49 @@
       <c r="G35" s="8"/>
       <c r="H35" s="13"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D36" s="13"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="8"/>
+      <c r="E36" s="10">
+        <v>10</v>
+      </c>
+      <c r="F36" s="9">
+        <v>20</v>
+      </c>
+      <c r="G36" s="8">
+        <v>5</v>
+      </c>
       <c r="H36" s="13"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
       <c r="B37" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" s="13">
         <v>15</v>
       </c>
-      <c r="C37" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D37" s="13"/>
       <c r="E37" s="10"/>
       <c r="F37" s="9"/>
       <c r="G37" s="8"/>
       <c r="H37" s="13"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="6" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D38" s="13"/>
       <c r="E38" s="10"/>
@@ -1425,27 +1956,29 @@
       <c r="G38" s="8"/>
       <c r="H38" s="13"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D39" s="13"/>
+        <v>70</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>99</v>
+      </c>
       <c r="E39" s="10"/>
       <c r="F39" s="9"/>
       <c r="G39" s="8"/>
       <c r="H39" s="13"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="6" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="D40" s="13"/>
       <c r="E40" s="10"/>
@@ -1453,53 +1986,61 @@
       <c r="G40" s="8"/>
       <c r="H40" s="13"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="6" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D41" s="13"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="9"/>
+      <c r="E41" s="10">
+        <v>10</v>
+      </c>
+      <c r="F41" s="9">
+        <v>10</v>
+      </c>
       <c r="G41" s="8"/>
       <c r="H41" s="13"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C42" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="D42" s="13"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="9"/>
+      <c r="E42" s="10">
+        <v>4</v>
+      </c>
+      <c r="F42" s="9">
+        <v>4</v>
+      </c>
       <c r="G42" s="8"/>
       <c r="H42" s="13"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>81</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="C43" s="6"/>
       <c r="D43" s="13"/>
       <c r="E43" s="10"/>
       <c r="F43" s="9"/>
       <c r="G43" s="8"/>
       <c r="H43" s="13"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C44" s="14" t="s">
-        <v>85</v>
+        <v>79</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="D44" s="13"/>
       <c r="E44" s="10"/>
@@ -1507,13 +2048,13 @@
       <c r="G44" s="8"/>
       <c r="H44" s="13"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D45" s="13"/>
       <c r="E45" s="10"/>
@@ -1521,27 +2062,29 @@
       <c r="G45" s="8"/>
       <c r="H45" s="13"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
       <c r="B46" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D46" s="13"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="11"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E46" s="10">
+        <v>3</v>
+      </c>
+      <c r="F46" s="9"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="13"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D47" s="13"/>
       <c r="E47" s="12"/>
@@ -1549,13 +2092,13 @@
       <c r="G47" s="16"/>
       <c r="H47" s="11"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D48" s="13"/>
       <c r="E48" s="12"/>
@@ -1563,7 +2106,22 @@
       <c r="G48" s="16"/>
       <c r="H48" s="11"/>
     </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="6"/>
+      <c r="B49" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D49" s="13"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="11"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.14000000000000001" right="0.16" top="0.75" bottom="0.22" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
